--- a/docs/data/Ecuador1.xlsx
+++ b/docs/data/Ecuador1.xlsx
@@ -41,21 +41,12 @@
     <t>Entonces es algo bastante extenso YY la idea es igual que el impacto sea extenso a todos estos países. Entonces ahí sí, Ay, no entra Venezuela, no, no entra Venezuela. Ah, bueno, porque en el a C L 3 sí está Venezuela sí, eso es un poco particular. Todavía no entendemos cómo es, pero por el momento para este proyecto que lo obtuvimos con UCI YBBF.</t>
   </si>
   <si>
-    <t>¿Están estos 7 países por el momento? ¿Y cómo se llama el digamos del proyecto? O la aproximación es del apoyo a los guardaparques que son parte del proyecto a s L a través del fortalecimiento de capacidades y de las comunicaciones que ya les explicaré más adelante, en el caso de Ecuador, que nos lleva mucho más cercano a lo a donde trabajamos, quien lidera este proceso y quien es del punto focal DWCS soy yo.</t>
-  </si>
-  <si>
     <t>Sí YY siempre hay una coordinación muy directa con el punto focal de a c L que es el Dani y con la gente del Banco Mundial que David jurado lleva esa relación y solo quería recordarles que esta reunión está grabada como para facilitar la la sistematización. Entonces, antes de empezar a explicarles porqué es este proyecto y de qué se trata este proyecto, sí quisiera que los asistentes se presenten. Yo sé que todos nos conocemos de hace muchos años.</t>
   </si>
   <si>
-    <t>¿Pero si sólo pueden dar su nombre, su apellido y dónde trabaja? El Dani ya habló, no sé si Darwin sí, buenas tardes, buenas tardes, mi nombre es Darwin Vivanco, soy guardaparque de la reserva biológica limón coche, un gusto estar aquí en esta reunión. Gracias Luis Borbor, muy buenas tardes, mi nombre es Luis Borbor.</t>
-  </si>
-  <si>
     <t>Soy el administrador de la reserva de producción de fauna Cuyavena Amazonia Norte y estoy trabajando cerca de 33 años en el área protegida. Gracias Luis Juan, buenas tardes. Mi nombre es Juan Neira. Todos conocen que trabajé mucho tiempo en en áreas protegidas, en temas de conservación. Actualmente trabajo en conservación internacional.</t>
   </si>
   <si>
-    <t>Justamente en el proyecto corredores de conectividad en mi base es en el podio, no en el corredor centro que intenta crear conectividad del Parque Nacional Shanghai con los territorios de la nacionalidad achuar. ¿Muchas gracias, entonces, bueno, de qué se trata este proyecto? La idea es poder hacer un diseño y llegar a una implementación de una serie de eventos de intercambio de conocimientos.</t>
-  </si>
-  <si>
     <t>Sobre temas claves para fortalecer las capacidades de los guardaparques en estos 7 países de a CLY también lo que está detrás es poder visibilizar las historias que hacen todos estos esfuerzos en comunicación y trabajo entre los equipos de a s L en cada 1 de los países, los países ya les mencioné.</t>
   </si>
   <si>
@@ -71,9 +62,6 @@
     <t>De generar todas estas temáticas, generar todos estos cursos de en greña y transformarlos en MOX, en MOX gratuitos que cualquier persona puede tomar y puede generar tal si no te quería interrumpir solo una pregunta, o sea, estos temas que pueden salir priorizados obviamente van a van a tener que ser de manera regional, entonces es un tema que se va a abordar de manera regional.</t>
   </si>
   <si>
-    <t>Un poco para que los compañeros también piensen en esas maneras. Temas muy específicos de nuestras áreas protegidas. No todas van a tener YYY. ¿Lo otro que te quería preguntar es estas priorizaciones, o sea, pueden salir varios cursos MOX, cómo lo que dices?</t>
-  </si>
-  <si>
     <t>Sí, la idea y está justo en el último párrafo. Van a ser como se van a priorizar cuatro temáticas centrales y va a ver como un programa de estudio que va a estar elaborado en los cuatro idiomas. Entonces dentro de esas cuatro temáticas centrales va a haber una serie de capacitaciones según los temas que se vayan priorizando. Es verdad lo que dice el Dani, esto es regional, pero no queremos influenciar a que sean como temas súper amplios.</t>
   </si>
   <si>
@@ -98,24 +86,9 @@
     <t>Pero hay otra parte que es muy importante y es el tema de la actitud y cómo desarrollar una actitud correcta para hacer un trabajo correcto como guardaparques. Entonces ahí y es a lo que estamos como priorizando un poco, porque esto no ha tenido mayor relevancia dentro de nuestros países. Y es algo muy importante porque con liderazgo y con capacidades de resolución de conflictos.</t>
   </si>
   <si>
-    <t>Sabemos que la gestión de las áreas protegidas podría mejorar y puede mejorar. ¿Entonces no está sesgado al tema de actitud? Podríamos incluir temas de habilidades y también de conocimientos, pero sí les pido que pensemos un poco en actitud. Es algo a lo que no estamos acostumbrados en el Ecuador, pero podría valer la pena. Entonces ahí empiezo, entonces de ahí es cuando yo les pido, en cambio, que.</t>
-  </si>
-  <si>
-    <t>Prendan sus cámaras y vamos y la idea es como ir interactuando un poco. No sé si tienen alguna pregunta. ¿Alguna sugerencia? Sí, yo yo yo yo tengo yo tengo algunas consultas, vean este diana, yo yo quisiera saber si si este proceso.</t>
-  </si>
-  <si>
-    <t>¿Este está replicando algún proceso exitoso que ya hubo en alguna parte del mundo? Hablo de Del proceso, hablo del proceso específicamente de de capacitación en línea. Sinceramente, sinceramente yo, yo, yo, yo este, yo me complico la vida con el asunto de de hacer estas capacitaciones en línea.</t>
-  </si>
-  <si>
     <t>Considerando que el guardaparque hace su trabajo en campo y por decir si que un guardaparque me pide el realizar una capacitación sobre sobre sobre osamentas, no, no, no me acuerdo el término, ya ya ya he olvidado el término para tratamiento de pieles y tanta cosa y yo le digo ya métase en línea y haga el.</t>
   </si>
   <si>
-    <t>¿El curso en línea, o sea, es un poco complicado, no? Que hacer lo práctico no, entonces, y así hay muchas situaciones en donde los quizás funcionan algunos tipos de capacitación en línea, pero el asunto de de hacerlo online sí, sí es medio complicado para que la gente preste atención. Entonces yo, yo, yo quisiera saber si este este este.</t>
-  </si>
-  <si>
-    <t>¿Esta situación ya se la ya se ya se tiene algún algún alguna experiencia exitosa? ¿Gracias, sí, sí, otra otra otra consulta es este ese este asunto de gestión del conocimiento, del intercambio de experiencia? Sí, es, es un algo que en realidad felicito que ustedes estén considerando. Mucha gente ya habla de gestión del conocimiento por la experiencia que hay, no por la experiencia que hay de muchos guardaparques.</t>
-  </si>
-  <si>
     <t>Que quizás con poca pocos años en la institución están con una capacitación y yo tengo guardaparques, te aseguro que que por ese ese amor que tienen el asunto conservación pueden ser instructores, el el el sacar o el ir hacer intercambio de experiencias de de de aquí del Puyabeno me invento a limón cocha a.</t>
   </si>
   <si>
@@ -137,12 +110,6 @@
     <t>Y por eso es que nosotros desde WCSY desde este contexto del proyecto, si nos queremos enfocar en el tema de actitudes sin dejar colgado el tema y la importancia de las habilidades y los conocimientos, tratar temas de liderazgo, tratar temas de resolución de conflictos, va a ser mucho más agradable hablarlo a través de un curso virtual.</t>
   </si>
   <si>
-    <t>Que otros temas mucho más específicos y técnicos de cada país. Es por eso que si les invitamos como a pensar un poco más en el tema de actitudes. Y bueno, quiero pasar ahora sí al tema de las preguntas y son preguntas para Luis, Juan, Dani y Darwin. ¿Y la primera pregunta es como podrían describir el papel de un guardaparque y su equipo en cumplir los objetivos de gestión de un área protegida?</t>
-  </si>
-  <si>
-    <t>¿Cuáles creen que son o cuáles son sus roles como guardaparques para poder cumplir los objetivos en una los objetivos de gestión en un área protegida? ¿Estás levantando la mano a Darwin, pero no le veo que hable, no veo, está, estás levantando dale Darwin o K o K Darwin, vas tú o voy yo?</t>
-  </si>
-  <si>
     <t>A ver, buenas buenas tardes, a ver los roles de los guardaparques en sí siempre yo hablo que son de multifunciones, hacen varias funciones, hacer control y vigilancia, hacer los temas de educación ambiental, el tema de monitoreo y en este caso a limón coche. También hace un poco el tema de administración y eso público y turismo. Entonces el rol de Guardaparques es bastante amplio.</t>
   </si>
   <si>
@@ -152,66 +119,30 @@
     <t>De las comunidades y la misma área protegida. Entonces para mí el rol de Guardoparque tiene mucho que ver y enfocarse al último de cumplir todas sus actividades que están establecidas después del al código de trabajo y al que se va. Las actividades ya están establecidas en la conservación y en temas de cumplimiento de objetivos para la llegar a cumplir los las metas que tiene cada área protegida específicamente.</t>
   </si>
   <si>
-    <t>¿Ahora Darwin, cuáles son sus deberes? ¿Usted como Darwin Vivanco de limón Cocha, cuál es su deber? Como guardaparque un poco más personal, mi deber es primero es el el tema de hacer cumplir las normas, la normativa que tiene las áreas protectivas, otra es acompañar un acompañamiento, el tema del turismo, dar las posibilidades también al tema turismo.</t>
-  </si>
-  <si>
-    <t>Porque lo manejamos como limococha. ¿El otro rol es mantener, Eh? Y cuidar todo lo que es, solo lo la la naturaleza, específicamente los recursos naturales. Nosotros estamos, aló, sí, ahí la escucho. Sí, esto los roles específicos acá es.</t>
-  </si>
-  <si>
-    <t>¿Dar y los y para cumplir los objetivos, nuestros roles, hacer controles y vigilancia es educación ambiental o colección de mis estados públicos? Cubrido dar las facilidades a a a todo esto y trabajar en en conjunto con los demás compañeros que son los roles de lugar. Gracias, gracias, no sé Luis si quiere comentar algo.</t>
-  </si>
-  <si>
-    <t>¿Darwin o K? Sí, estoy conectado. ¿Darwin lo dijo casi todo, pero sí, o sea, yo yo pienso que primero, el que tenga una visión muy clara de que es un servidor público, el servidor público es darle servicio al público, no? Pero eso está más que todo ya de acuerdo a las competencias, es un custodio de todos los servicios ecosistémicos que tiene ahí el área protegida.</t>
-  </si>
-  <si>
     <t>Yo siempre he dicho guardapar que tiene que ser, no sé, yo es de mi época, no es de la época de es un mcgyver, es alguien que si es que no se la sabe, se la inventa, pero da soluciones a todos estos problemas que tiene el área protegida. Trata de cumplir un rol muy fundamental, que es el de trabajar en equipo, que tiene que trabajar en equipo y para eso y para eso tiene unos deberes no, que son el compromiso con la institución.</t>
   </si>
   <si>
     <t>Y para tener ese compromiso con la institución tiene que tener sobre todo todos esos valores Morales que ya se están perdiendo, no todas las toda honestidad y todo lo que son valores, valores Morales, que ya casi la gente no lo tiene. Entonces eso yo puedo indicar muchas gracias. Luis, no sé si Juan y Dani quieren comentar algo o sí quiero comentar algo, diana.</t>
   </si>
   <si>
-    <t>¿Bueno, voy a comentar en base a mi experiencia, no? Bueno, en en sí. La la función del guardaparque es que toda la planificación que se hace en escritorio se la cumpla, o sea, que llegue al campo. Es como un intermediario entre lo que se planifica y la realidad que existe. Exactamente son los ejecutores de la de la planificación, pero también es un rol que tienen.</t>
-  </si>
-  <si>
     <t>De cumplimiento de las reglas que se ha establecido en El País, pero también es un rol social, porque hay un relacionamiento diario con con comunidades con infractores, con otros organismos que se están realizando actividades relacionadas con el control, como la policía, el Ejército, otros ministerios y.</t>
   </si>
   <si>
-    <t>Bueno, hay un criterio muy personal que yo creo que la edición del guardapar que va más allá de ser un servidor público. ¿A qué me refiero? Porque un guardapark que no cumple horario de 8 a 5, sino tiene que cumplir otro tipo de horario, otro tipo de actividades que muchas veces están fuera de la descripción de su puesto, pero que sirven para que se puedan cumplir con las actividades que se.</t>
-  </si>
-  <si>
-    <t>Que sean propuestas, no mucho de esto viene en el tema de relacionamiento de comunitario. Quizá no existe un manual que le diga 1 así hay que relacionarse, pero ahí viene el ingenio de las personas que se encuentran en territorio para realizar este tipo de actividades. No, eso es cuánto lo que puedo, lo que lo que puedo compartir con ustedes. Gracias Juan. ¿La siguiente pregunta guía es qué competencias pensando en todos estos roles que ustedes acaban de decir?</t>
-  </si>
-  <si>
-    <t>¿Todos estos papeles que les permite o que sería lo ideal para lograr una gestión efectiva de las áreas, qué competencia desde sus perspectivas son necesarias para para los guardaparques? ¿Qué creen que les hace falta como para llegar a este, a estos, a todas estas palabras que ustedes que ustedes mencionaron en la diapositiva anterior y pueden ser competencias de las 3 clases?</t>
-  </si>
-  <si>
     <t>De habilidades, de conocimiento o de actitudes, yo yo había, yo había mencionado que que en realidad, para llegar a hacer todo todo lo que debería ser un guardaparque que va más allá de de de saber conocer lo básico del guardaparque tiene que tener 111 conocimiento sobre todo.</t>
   </si>
   <si>
     <t>Como un extensionista, no sé cómo ustedes lo puedan visibilizar, un extensionista que trate de enseñar, sí, de enseñar a la gente todo un asunto, de cómo conservar recursos naturales, pues ahí él, él debería decirle conocer sobre un asunto este pecuario, por decir, Ah, el ganado, para que usted no lo no, no, no desforeste una hectárea.</t>
   </si>
   <si>
-    <t>Para tener una sola, una sola vaca o un solo un solo animal. Ahí debería de conocer sobre manejo estabular de ganado. Sí, para el asunto de de de de plantaciones debería de conocer mucho sobre el asunto forestal, de cómo hacer todo un asunto de cultivos. ¿Debería entonces ese es pensionista?</t>
-  </si>
-  <si>
     <t>Debería tener conocimiento sobre prácticamente varias temáticas, que para que sea como bien visto y que sea una persona que vaya a apoyar al desarrollo de de los grupos que están dentro del área protegida y en la zona de influencia no campesino e indígena, entonces para eso necesitaría de muchísima capacitación tanto del conocimiento ancestral.</t>
   </si>
   <si>
     <t>O técnicas ancestrales Unidas con el con las técnicas y los conocimientos occidentales. Ahora Luis, yo tengo una contra pregunta, no todos, no todos los seres humanos tienen como capacidades que les atraen. Entonces, por ejemplo, un guardapar que puede ser muy bueno en SEPA, pero va a ser muy malo en temas de.</t>
   </si>
   <si>
-    <t>¿De recolección de no sé el tema de cultivos o temas de ganado, pero es muy bueno en sepa cómo cómo crees tú que esa persona que hace muy bien para lo que le gusta hacer, pero no es tan bueno en otras técnicas?</t>
-  </si>
-  <si>
     <t>Podamos motivarle a que si bien no, no va a ser como una muy buena persona que cría ganado y todos y todos se salvan y ninguno se muere, pero sí podemos llegar como a motivar a esa persona para que adquiera conocimientos que le van a permitir trabajar mejor con ese tema que no está muy muy convencido.</t>
   </si>
   <si>
-    <t>¿Sí, verdad? ¿YY ese y ese es una situación complicada porque este con con todo el el, la, los procesos que estamos como ministerio del Ambiente, llevándonos que cada vez hay menos gente, se tiene que hacer como un asunto de motivación y esa y esa motivación yo o sea, pueden ser de varios de varias formas, no? Incremento de sueldo, ascenso. ¿Por qué? Porque.</t>
-  </si>
-  <si>
-    <t>¿El personal de guardaparques entra como guardaparques y termina como guardaparques toda su carrera y más bien deberíamos ahí también buscar una forma de motivación a través del Estado para que como que vayan ascendiendo igual como hay en cualquier institución, no? Primero entra con 1º y va subiendo y va ascendiendo de grado, igual como los militares entran como soldados y termina como como sargentos, igual como los oficiales que entran como subtenientes y terminan.</t>
-  </si>
-  <si>
     <t>Como generales o coroneles o generales, debería de de de de haber una especie de incentivo para que la gente también vaya este interesándose por seguir aprendiendo. Pero aquí este es como es, como un asunto obligatorio, porque si no conozco, si que yo no conozco el tema jurídico, sí de cómo son los procesos sancionatorios este no puedo asumir ese rol de administrador.</t>
   </si>
   <si>
@@ -245,66 +176,33 @@
     <t>Al estudiante poder llegar a la A la Comunidad, pero sí tengo otras otras otras habilidades que sí me interesaría un poco. Entonces a veces yo me pongo que como que lo quieren colapsar al al, al guardaparque el pueblo guardaparque, tú tienes que estar en esto, tú tienes que irle a tomar las trampas, tú tienes que ir para monitoreo, tú tienes que saber el uso público y turismo, tú tienes que saber cómo llegar a la gente con situación ambiental y entonces Eh, tú te pones a pensar.</t>
   </si>
   <si>
-    <t>¿Yo en la parte económica tanto me me capacitan tanta cosa esta y no hay un reconocimiento al final del día tú te puedes tener las mejores capacitaciones, el mejor conocimiento te lo puedes aplicar en el área, pero no hay un reconocimiento por el estado del que digamos este señor se se se sacrifica, este señor tiene su conocimiento en tales áreas y va a haber algo económico o un rubro más, no? Entonces esto por ahí como que te desanima al final.</t>
-  </si>
-  <si>
-    <t>He visto acá ya en un coche, no sé si compañero Juan se haya dado cuenta, pero nosotros siempre manejábamos un poco más las habilidades que tiene cada 1. Tú eres bueno en esto, Hazte cargo de esto YY las capacitaciones que se vienen siempre se van hablando a este ritmo. ¿Si llego a la educación ambiental, vaya con usted con educación ambiental, porque no había sentido darle a una persona que no le gusta dar educación ambiental, darle imponerle como un conocimiento, qué va a ir?</t>
-  </si>
-  <si>
     <t>Pero no va a tener la actitud de de venir y de aprender, como al que le gusta esa esa esa materia de eso no más llano. Gracias Darwin. No sé si Juan o Danny sí. Yo quería comentar algo igual que viene en relación a lo que que comentaban Darwin y el doctor. Una competencia que creo que deberían.</t>
   </si>
   <si>
     <t>Tener todos los guardaparques, sea cuál sea el rol que cumplan, es el tema de comunicación. Quizá que sería interesante como que se pueda tener un un módulo de comunicación asertiva, de Relacionamiento comunitario, porque en realidad nadie enseña eso. El guardaparques se lanza a territorio, se lanza a campo y ahí debe ingeniarse de de cómo relacionarse con las personas y además creo que es necesario.</t>
   </si>
   <si>
-    <t>Algo que igual debe tener todo gorda parque es explicar sobre la importancia del trabajo que se está realizando. ¿Si nosotros lo hacemos de un análisis y todo el esnavi preguntamos qué es algún gorda parque, pero tú por qué conservas? ¿Para qué sirve la conservación? No sabemos si todos puedan dar un un criterio que sea empoderado sobre sobre por qué están conservando. Y esto viene de la parte que tú mencionabas, diana sobre sobre la actitud y creo que se debería al primero.</t>
-  </si>
-  <si>
     <t>Hacer que las las personas tengan este este conocimiento para que sepan la importancia del trabajo que que están realizando. No hay muchos guardaparques empoderados y que hacen un excelente trabajo. Y yo creo que es por eso, porque ellos saben la importancia del tema que está de la conservación, no, eso es lo que puedo aportar. Gracias, Juan dan. Gracias, Benita.</t>
   </si>
   <si>
     <t>Muy de acuerdo, no con con los compañeros el guardaparques, pues es esa persona que está en territorio, que representa el Ministerio en territorio. Entonces yo también veo muy importante el tema de conocer la legislación ambiental, conocer las competencias, o sea las competencias que tenemos como ministerio, como Guardaparques, como direccionarias, protegidas y poder eso, comunicar no, que es un poco lo que dice Juan, esa comunicación asertiva, que que sepa llegar a la gente y decirlo esto porque hay de todo, puede pasar gente que no puede explicar o hay gente que lo explica mal.</t>
   </si>
   <si>
-    <t>¿Lo explica de una manera que no es, no es la adecuada, entonces se generan los conflictos, entonces obviamente los guardaparques, pues yo creo que de manera general todos deben saber que son los 5 programas, para qué sirve cada 1? ¿Qué es el P G o a qué es el paga? Éstas competencias tienen que tenerlas y ya obviamente cada 1 tiene sus todos somos así, la persona que tiene control, vigilancia tiene que saber usar 1 G p s tiene que saber usar Smart.</t>
-  </si>
-  <si>
     <t>Obviamente y de SEPA si no con todas esas cosas, pero yo pienso que todos deberían saber algún rato aún where para que lo se por algunas estructuras se queda de administrador encargado y tiene que hacer dije, Ah, entonces si ni siquiera sabe qué es, no lo va a poder hacer. Entonces obviamente las competencias. Estoy muy, muy de acuerdo con el tema comunitario.</t>
   </si>
   <si>
     <t>Muchos de los problemas que tenemos en las áreas son con relacionamiento con la gente. El tema de manejo de conflictos es muy importante porque no sabemos, o sea, yo no sé cómo se me deja un conflicto, no, no tenemos una metodología en nuestra mente, un diseño, un modelo que nos dé una una cosita así, no, tal vez es un poco lo que nos falta, aterrizar un un modelo de cómo cómo se trabaja en el tema de incendios forestales, pues es este sistema de.</t>
   </si>
   <si>
-    <t>¿De control de incidentes, o sea, verlo todo como un incidente y tratar de llevarlo desde la cosa más pequeña, como controlado, no? Y con roles muy, muy, muy, muy bien definidos entre la gente mismo del área protegida. Entonces ya en en la parte técnica, pues también creo que sí sería bueno, de alguna manera, que cada programa tenga 111 refuerzo en algo, no, entonces sería un.</t>
-  </si>
-  <si>
-    <t>¿Un poco ilógico que un guardaparque no sepa usar 1 1 G p S aunque no sea de control de vigilancia, debería usarlo y cosas así no? Entonces me parece ése YY tal vez un tema, un tema de liderazgo, no un tema de liderazgo, pensando no sólo en la de administradores. Muchas veces pensamos que el administrador es del líder y todo, pero en la final del guardaparque que está al frente a la Comunidad, asume un rol de liderazgo y que tiene que saber explicar a la gente.</t>
-  </si>
-  <si>
-    <t>¿Algún problema ambiental, alguna cuestión, pero tiene que tomar ese rol, no? YY que la gente lo vea, que el Ministerio está liderando a través de esto del guardaparques, no así un poquito rápido. Dianita, gracias, gracias Dani. ¿Yo tengo una pregunta, tú crees que hubiéramos podido ahorrarnos conflictos, si es que nuestros guardaparques y nuestros jefes de área tuvieran una claridad en liderazgo para el manejo de conflictos?</t>
-  </si>
-  <si>
-    <t>¿Sí, o sea, es es una combinación entre el el liderazgo, el manejo de conflictos y también el tema está claro en el tema de competencias no? Obviamente va haber siempre un conflicto que es inevitable cuando ya hay personas que son excesivamente violentas. Eso pasa mucho en yasuní, que ya no se puede, pero si tú trabajas con con las personas en su día a día, tratas de hacer un sistema, digamos en el tiempo YY liderado por por los mismos guardaparques.</t>
-  </si>
-  <si>
     <t>El conflicto no debería suceder porque la gente debe saber qué es lo que hacemos, o sea, explicarles por qué estamos conservando, por qué es un área protegida YY tratar de de ir posicionando la la figura en el territorio. No, obviamente no es fácil y siempre va a haber problemas, pero sí, yo creo que sí, sí, sí, el tema de liderazgo en realidad es algo que nosotros no, no lo tenemos, o sea, digo de manera personal, yo no sé, o sea, no sé.</t>
   </si>
   <si>
-    <t>¿Cómo liderar? O sea, no, no, casi todos los hacemos ya porque nos toca hacerlo. ¿Lo hacemos bien, sí se puede hacer mejor, piensen o K, porque, por ejemplo, el conflicto siempre va a haber, no? YY nuestra formación en liderazgo y en manejo de conflictos va a ser a cómo nosotros enfrentemos el conflicto si nosotros enfrentamos el conflicto con más conflicto o entramos a un conflicto mediando o buscando opciones.</t>
-  </si>
-  <si>
     <t>Entonces eso también te da como esas destrezas de de poder primero conocerte a ti como persona y decir, yo tengo una un manejo de conflicto que entra a pelear porque puede haber habemos personas así, pero la idea con esto es poder enfocar esa esas personalidades a tener un un liderazgo interno primero como persona y luego decir o K tengo un conflicto, tengo que solucionar el conflicto con nuevas herramientas.</t>
   </si>
   <si>
     <t>Tal vez porque muchas veces puede ser un conflicto, simplemente sería el conflicto mal manejado, por poner un un ejemplo, X pero tal vez ese conflicto, si teníamos como un poco más de conocimiento, podríamos haberlo mediado mejor, pero nada más bueno. Y para terminar esto ya es un poco más específico, no sé si.</t>
   </si>
   <si>
-    <t>Podemos identificar al menos 2 capacidades de habilidades que necesitan ser abordadas para los y las guardaparques para que puedan cumplir con sus deberes. Creo que y me voy a adelantar a esto. ¿Estarían de acuerdo que sea liderazgo y manejo de conflictos o no están de acuerdo? ¿Qué opinan?</t>
-  </si>
-  <si>
-    <t>Yo quiero, yo quiero, no sé este un poco hacer un análisis del tema anterior y lo que estaba mencionando estaban mencionando los compañeros todos. Pero miren, nos falta, nos falta respaldo institucional, definitivamente nos falta respaldo, intensidad. ¿En qué sentido en que el personal de guardaparques, administradores, técnicos son amenazados?</t>
-  </si>
-  <si>
     <t>Y lo que la institución dice presente la denuncia a Fiscalía, porque eso no, el el Ministerio no va. Y entonces como que quedamos, nosotros quedamos prácticamente sin ese respaldo institucional. Este, miren, nosotros deberíamos de tener un asunto de mayor autoridad.</t>
   </si>
   <si>
@@ -317,12 +215,6 @@
     <t>Nosotros somos autoridad y la gente nos reconoce acá en el en el sector, por eso pienso yo que acá en este, en este espacio hemos ganado institucionalidad, pero nos falta. Nos falta el que se apliquen sanciones fuertes, no hay sanciones, así que di sean relevantes y eso ya es un cambio, un cambio en la normativa o en la legislación, el asunto de imagen institucional.</t>
   </si>
   <si>
-    <t>¿El asunto, el asunto de imagen institucional? Pues sí. O sea, es importante. O sea, el estar con una buena presencia, con una buena vestimenta, el estar con carros, vehículos y bienes que la gente vea, Ah, sí, son del Ministerio del Ambiente. ¿Eso también es importante? Sí, y el que se pueda dar como lecciones.</t>
-  </si>
-  <si>
-    <t>De que si es que hay algo infracciones graves y se y se visibiliza que hay estas sanciones se las puede realizar en el menor tiempo posible. ¿Por qué? Porque nosotros tenemos ejemplos. Tras ejemplo, de que el personal realiza algún tipo de de de de retención por un un asunto bien flagrante en términos técnicos que se los encuentra con las manos en la masa.</t>
-  </si>
-  <si>
     <t>Y después entra en un proceso que termina después de 4 años devolviendo toda la maquinaria y de todos los asuntos. De eso desmotiva a la gente y dice, no, pues para qué lo he hecho, si al final después con el tiempo, yo yo quedo mal, entonces, si bien todo ese todo ese asunto, hay que ponerse a analizar con todo un asunto de respaldo institucional y todo un asunto de tener mayor autoridad dentro de la jurisdicción donde le compete trabajar al guardaparques.</t>
   </si>
   <si>
@@ -347,57 +239,15 @@
     <t>Eso no más dio para mí, que ellos también deberían estar influidos, porque no hay sentido que nosotros tengamos full capacitación, hagamos los informes, Hagamos todo y se van a representar allá mismo los documentos, eso no más. Gracias Darwin, no sé si Danny y Juan Danny, gracias dianita ahí. De acuerdo con los compañeros un poco otras ideas que pueden se podrían tomar en cuenta.</t>
   </si>
   <si>
-    <t>Estoy pensando así de manera regional y ya en la parte ya técnica no sé si será necesario un curso o bueno, no sé un tema de plataformas regionales que se podrían usar en la Amazonía o o que nosotros sepamos qué hay, cómo se puede usar y hasta qué punto llegar. ¿Podría ser algo así? No sé. ¿Plataformas regionales, otro tema que me me queda aquí, el tema es como el proyecto de la CL es, es mucho de conectividad, no? Entonces tal vez una conectividad.</t>
-  </si>
-  <si>
-    <t>¿No sé entre redes ecosistémica, pero sería bueno tener que los chicos sepan un poco más del tema de conectividad desde un punto de vista amplio, no? Y el el tema de relacionamiento comunitario me parece súper súper importante. Relacionamiento comunitario es en Amazonía, sobre todo debería debería estar y el tema de la la resolución de conflictos dianita.</t>
-  </si>
-  <si>
-    <t>Tal vez irnos un poco más allá desde un desde una mirada antropológica o sociológica, ya que en Amazonía están los los pueblos y comunidades indígenas. Tratar de ver esa, esa, esa manera de tratar de entender a la gente que vive ahí desde su cultura y desde su idiosincrasia, para así manejar un conflicto. ¿Y bueno, deberías de tratar de evitarlo siempre, no?</t>
-  </si>
-  <si>
     <t>Me me parece así un poco lo que te quería decir, relacionamiento comunitario, relacionamiento comunitario, no sé, es un enfoque, cómo, cómo, cómo verlo, pero que no sea necesariamente solo para la gente que sepa. Y también te decía un poco el tema de conectividad, debido a que es un proyecto regional, esto podría estar tal vez en las plataformas regionales, pero.</t>
   </si>
   <si>
-    <t>¿Tratar de que la gente entienda cómo podemos manejar esta conectividad para que después de que el proyecto se vaya, pues quede ya algo, no? Eso gracias, gracias Juan, sí igual en base a lo que estaban comentando los compañeros. ¿Creo que el tema de resolución de conflictos debe estar ligado a relaciones comunitarias, con qué objetivo objetivo sería evitar que surjan estos conflictos?</t>
-  </si>
-  <si>
-    <t>Porque es un tema ya estructural de Del Estado que quizá sea difícil que se pueda abordar con este tema de capacitación, no lo que sucede y ha sucedido en el tiempo que yo estaba, que se llegaban los informes y no había ninguna solución ni ninguna resolución. Y el tema claro, no ha existido. ¿Sanciones graves? No, pero la idea sería más bien que nosotros podamos relacionarnos con las personas para evitar que se cometan estos delícitos de.</t>
-  </si>
-  <si>
-    <t>¿Ambientales? No, igual hablamos del tema de conectividad, no, la conectividad no solo es ecológica, también debería ser una conectividad social que exista a lo largo de un sistema en que las personas puedan estar colaborando con la conservación del área protegida. En el tema de limón Concha, muchas personas avisaban cuando entraba gente de otras comunidades de realizar este tipo de actividades. No, y la idea que yo hago referencia a esto de relaciones comunitarias, de comunicación asertiva, es.</t>
-  </si>
-  <si>
     <t>Porque se debe ver al guardaparque como una persona que está ayudando a toda la Comunidad y a y a todo el sector. No, no, no solo tiene que ver como que es una persona que va a venir a sancionarme, una persona brava, una persona inaccesible, una persona que va a venir a controlar, no, y yo creo que debería ir por esa parte, no el el tema de las capacitación no, claro, hasta que deben saber cuáles son las sanciones, cómo se aplican las las sanciones.</t>
   </si>
   <si>
-    <t>¿Pero no ser el guardapar que el que aplique las sanciones es algo que sale fuera de las manos, no? Y su trabajo llega hasta cierto hasta cierto punto. Y aquí viene de la mano una buena comunicación, una motivación y que se pueda transmitir esa esa motivación al resto de de personas. No, Juan, ahí el tema que tenían ustedes mucho en la mancocha de monitoreo comunitario.</t>
-  </si>
-  <si>
-    <t>También podría ser una un sí había este tema, este tema participativo, no este tema que que se que se sigue a esta hora ahí hasta ahora trabajando. ¿Y esa sería la la idea, no que claro que no todas las personas son infractores y no todas las personas cometen que se ilícitos ambientales por maldad no es muchas veces por desconocimiento y exactamente por necesidad, no?</t>
-  </si>
-  <si>
-    <t>Y hablábamos de las diferentes competencias que tienen las personas y claro, es cierto, yo de acuerdo con con lo lo que decía Darwin, que no todos pueden ser todos los no y limón coches. ¿Sabíamos que era bueno para hacer rótulos y para diferentes actividades, pero el tema de comunicarse absolutamente todos van a necesitar comunicarse, algún momento les van a preguntar y ustedes qué hacen YY por qué trabajan y cuál es la importancia de su trabajo? Y qué pasa si tumbos de árbol no por tal motivo considero que es una habilidad súper súper importante.</t>
-  </si>
-  <si>
-    <t>Y tener en cuenta que la perspectiva que se tiene sobre un guardapar que va a variar desde el punto de vista que lo vean. ¿A qué me refiero con esto? No dentro del sistema de las protegidas hay una perspectiva dentro de una comunidad, hay una perspectiva dentro, una si una perspectiva. Y pues la idea es de eso que puede haber 111 comunicación adecuada para que las personas puedan conocer la importancia de de ese trabajo.</t>
-  </si>
-  <si>
-    <t>Les agradezco mucho, he estado tomando nota. Sí, permítame el el monitoreo comunitario, sí, me gustaría que la notes como o sea, tal vez aprender a hacer un un modelo de monitorio comunitario podría ser interesante para las áreas que no tiene como una forma de relacionamiento. ¿Te refieres?</t>
-  </si>
-  <si>
-    <t>Monitor comunitario. ¿Sabes que se hace monitoreo biótico? Sí, pero como una forma de relacionamiento como las comunidades o como una forma de emplear a las comunidades. Emplear en términos monetarios, dicen, o de vincular, más que emplear vincular un trabajo colaborativo sería entre sería un validar para que la gente también aprenda. ¿Por qué se hace la conservación?</t>
-  </si>
-  <si>
     <t>Y ahí, ahí mismo, en coche tiene muchas experiencias, pero las otras áreas podrían diseñarlo y tratar de implementarlo poco a poco, no, porque el mismo coche es chiquito. Comparando con las otras áreas, sí de controlar, pero en otras áreas más grandes se podría diseñar un modelo, ir implementándolo poco a poco, no algo así, Luis, Sí, este, yo yo igual quiero dar un comentario, no sé cuál sea la temática, pero si es necesario.</t>
   </si>
   <si>
-    <t>Que la gente en territorio pueda visibilizar intereses, intereses de parte y parte. ¿No? Mire, te hablo de hay un conflicto, gente, fauna con el asunto del Jaguar. Hasta ahora, después de tantísimos años, no tenemos una directriz clara que hacer cuando la gente viene y nos dice, se me está comiendo el ganado el Jaguar o lo capturamos y lo llevamos a otro lado o lo matamos.</t>
-  </si>
-  <si>
-    <t>Y generalmente nosotros no tenemos ninguna salida y terminan matando al Jaguar. ¿O sea, pero si si identificáramos el interés, por qué? Porque este el caso de los defines que mata a la gente, mata a los delfines. Pero si los ven como un asunto de interés de turismo, la gente va a cuidar. Es es lo que pasa acá en este sector de cuya ver no la zona turística nadie caza, bueno, nadie caza, nadie pesca.</t>
-  </si>
-  <si>
     <t>Y ahí está, se ve cantidad de animales y por eso la la lo atractivo de de de cuya b ese interés está identificado. Pero hay hay que el guardapar que tiene que tener esa habilidad de de identificar esos intereses y transformar esos conflictos, transformarlos de una forma positiva para ver cómo cómo se deja de presionar a determinado especie. Y otra cosa es que el que el guardapar que ya suma otro rol.</t>
   </si>
   <si>
@@ -413,12 +263,6 @@
     <t>O K les agradezco, no sé si alguien más tiene algún comentario. Dani sí, danita unos últimos dos, justo me estaba acordando de los. A veces los chicos necesitamos también un tema de como de escritura básica o lectura comprensiva. Podría ser un a veces no todos no, pero sí sí es necesario a veces un poco reforzar esos temas que podría ser algo chiquito, pero que también es importante ahora.</t>
   </si>
   <si>
-    <t>¿Ahí voy a hacer bien honesto, Dani, cómo crees tú que lo tomen? ¿En qué sentido? Porque es fuerte pedirle a guardaparques que han tenido una formación de bachiller al menos, y muchos de ellos tienen licenciaturas y hasta ingenierías que tomen un curso de lectura comprensiva y redacción básica.</t>
-  </si>
-  <si>
-    <t>Claro, o sea, algunos tienen estatura, pero el perfil recuerda guardaparques es bachiller, entonces, De hecho deben ser muy pocos los que son un porcentaje pequeño, los que son digamos tercer nivel o cuarto nivel. ¿Entonces ese habría que ir identificando con los administradores? Obviamente ellos saben quién necesita un refuerzo en eso. YY claro, yo pienso que no tenemos que hacerlo totalmente obligatorio YY mucha gente sabe que necesitas de ese tema, YY yo pienso que los que.</t>
-  </si>
-  <si>
     <t>Están conscientes, pero lo pueden aprovechar. Pero claro, hay gente que no necesita, pero y sí hay gente que sí. Perdón, David jurado. Voy a agregar un comentario personal, que es un tema de motivación a la lectura, porque cuando haga, cuando hacemos de este tema de lectura comprensiva y redacción gráfica, si es que no la practican a través de lecturas.</t>
   </si>
   <si>
@@ -444,6 +288,162 @@
   </si>
   <si>
     <t>texto</t>
+  </si>
+  <si>
+    <t>Están estos 7 países por el momento? Y cómo se llama el digamos del proyecto? O la aproximación es del apoyo a los guardaparques que son parte del proyecto a s L a través del fortalecimiento de capacidades y de las comunicaciones que ya les explicaré más adelante, en el caso de Ecuador, que nos lleva mucho más cercano a lo a donde trabajamos, quien lidera este proceso y quien es del punto focal DWCS soy yo.</t>
+  </si>
+  <si>
+    <t>Pero si sólo pueden dar su nombre, su apellido y dónde trabaja? El Dani ya habló, no sé si Darwin sí, buenas tardes, buenas tardes, mi nombre es Darwin Vivanco, soy guardaparque de la reserva biológica limón coche, un gusto estar aquí en esta reunión. Gracias Luis Borbor, muy buenas tardes, mi nombre es Luis Borbor.</t>
+  </si>
+  <si>
+    <t>Justamente en el proyecto corredores de conectividad en mi base es en el podio, no en el corredor centro que intenta crear conectividad del Parque Nacional Shanghai con los territorios de la nacionalidad achuar. Muchas gracias, entonces, bueno, de qué se trata este proyecto? La idea es poder hacer un diseño y llegar a una implementación de una serie de eventos de intercambio de conocimientos.</t>
+  </si>
+  <si>
+    <t>Un poco para que los compañeros también piensen en esas maneras. Temas muy específicos de nuestras áreas protegidas. No todas van a tener YYY. Lo otro que te quería preguntar es estas priorizaciones, o sea, pueden salir varios cursos MOX, cómo lo que dices?</t>
+  </si>
+  <si>
+    <t>Sabemos que la gestión de las áreas protegidas podría mejorar y puede mejorar. Entonces no está sesgado al tema de actitud? Podríamos incluir temas de habilidades y también de conocimientos, pero sí les pido que pensemos un poco en actitud. Es algo a lo que no estamos acostumbrados en el Ecuador, pero podría valer la pena. Entonces ahí empiezo, entonces de ahí es cuando yo les pido, en cambio, que.</t>
+  </si>
+  <si>
+    <t>Prendan sus cámaras y vamos y la idea es como ir interactuando un poco. No sé si tienen alguna pregunta. Alguna sugerencia? Sí, yo yo yo yo tengo yo tengo algunas consultas, vean este diana, yo yo quisiera saber si si este proceso.</t>
+  </si>
+  <si>
+    <t>Este está replicando algún proceso exitoso que ya hubo en alguna parte del mundo? Hablo de Del proceso, hablo del proceso específicamente de de capacitación en línea. Sinceramente, sinceramente yo, yo, yo, yo este, yo me complico la vida con el asunto de de hacer estas capacitaciones en línea.</t>
+  </si>
+  <si>
+    <t>El curso en línea, o sea, es un poco complicado, no? Que hacer lo práctico no, entonces, y así hay muchas situaciones en donde los quizás funcionan algunos tipos de capacitación en línea, pero el asunto de de hacerlo online sí, sí es medio complicado para que la gente preste atención. Entonces yo, yo, yo quisiera saber si este este este.</t>
+  </si>
+  <si>
+    <t>Esta situación ya se la ya se ya se tiene algún algún alguna experiencia exitosa? Gracias, sí, sí, otra otra otra consulta es este ese este asunto de gestión del conocimiento, del intercambio de experiencia? Sí, es, es un algo que en realidad felicito que ustedes estén considerando. Mucha gente ya habla de gestión del conocimiento por la experiencia que hay, no por la experiencia que hay de muchos guardaparques.</t>
+  </si>
+  <si>
+    <t>Que otros temas mucho más específicos y técnicos de cada país. Es por eso que si les invitamos como a pensar un poco más en el tema de actitudes. Y bueno, quiero pasar ahora sí al tema de las preguntas y son preguntas para Luis, Juan, Dani y Darwin. Y la primera pregunta es como podrían describir el papel de un guardaparque y su equipo en cumplir los objetivos de gestión de un área protegida?</t>
+  </si>
+  <si>
+    <t>Cuáles creen que son o cuáles son sus roles como guardaparques para poder cumplir los objetivos en una los objetivos de gestión en un área protegida? Estás levantando la mano a Darwin, pero no le veo que hable, no veo, está, estás levantando dale Darwin o K o K Darwin, vas tú o voy yo?</t>
+  </si>
+  <si>
+    <t>Ahora Darwin, cuáles son sus deberes? Usted como Darwin Vivanco de limón Cocha, cuál es su deber? Como guardaparque un poco más personal, mi deber es primero es el el tema de hacer cumplir las normas, la normativa que tiene las áreas protectivas, otra es acompañar un acompañamiento, el tema del turismo, dar las posibilidades también al tema turismo.</t>
+  </si>
+  <si>
+    <t>Porque lo manejamos como limococha. El otro rol es mantener, Eh? Y cuidar todo lo que es, solo lo la la naturaleza, específicamente los recursos naturales. Nosotros estamos, aló, sí, ahí la escucho. Sí, esto los roles específicos acá es.</t>
+  </si>
+  <si>
+    <t>Dar y los y para cumplir los objetivos, nuestros roles, hacer controles y vigilancia es educación ambiental o colección de mis estados públicos? Cubrido dar las facilidades a a a todo esto y trabajar en en conjunto con los demás compañeros que son los roles de lugar. Gracias, gracias, no sé Luis si quiere comentar algo.</t>
+  </si>
+  <si>
+    <t>Darwin o K? Sí, estoy conectado. Darwin lo dijo casi todo, pero sí, o sea, yo yo pienso que primero, el que tenga una visión muy clara de que es un servidor público, el servidor público es darle servicio al público, no? Pero eso está más que todo ya de acuerdo a las competencias, es un custodio de todos los servicios ecosistémicos que tiene ahí el área protegida.</t>
+  </si>
+  <si>
+    <t>Bueno, voy a comentar en base a mi experiencia, no? Bueno, en en sí. La la función del guardaparque es que toda la planificación que se hace en escritorio se la cumpla, o sea, que llegue al campo. Es como un intermediario entre lo que se planifica y la realidad que existe. Exactamente son los ejecutores de la de la planificación, pero también es un rol que tienen.</t>
+  </si>
+  <si>
+    <t>Bueno, hay un criterio muy personal que yo creo que la edición del guardapar que va más allá de ser un servidor público. A qué me refiero? Porque un guardapark que no cumple horario de 8 a 5, sino tiene que cumplir otro tipo de horario, otro tipo de actividades que muchas veces están fuera de la descripción de su puesto, pero que sirven para que se puedan cumplir con las actividades que se.</t>
+  </si>
+  <si>
+    <t>Que sean propuestas, no mucho de esto viene en el tema de relacionamiento de comunitario. Quizá no existe un manual que le diga 1 así hay que relacionarse, pero ahí viene el ingenio de las personas que se encuentran en territorio para realizar este tipo de actividades. No, eso es cuánto lo que puedo, lo que lo que puedo compartir con ustedes. Gracias Juan. La siguiente pregunta guía es qué competencias pensando en todos estos roles que ustedes acaban de decir?</t>
+  </si>
+  <si>
+    <t>Todos estos papeles que les permite o que sería lo ideal para lograr una gestión efectiva de las áreas, qué competencia desde sus perspectivas son necesarias para para los guardaparques? Qué creen que les hace falta como para llegar a este, a estos, a todas estas palabras que ustedes que ustedes mencionaron en la diapositiva anterior y pueden ser competencias de las 3 clases?</t>
+  </si>
+  <si>
+    <t>Para tener una sola, una sola vaca o un solo un solo animal. Ahí debería de conocer sobre manejo estabular de ganado. Sí, para el asunto de de de de plantaciones debería de conocer mucho sobre el asunto forestal, de cómo hacer todo un asunto de cultivos. Debería entonces ese es pensionista?</t>
+  </si>
+  <si>
+    <t>De recolección de no sé el tema de cultivos o temas de ganado, pero es muy bueno en sepa cómo cómo crees tú que esa persona que hace muy bien para lo que le gusta hacer, pero no es tan bueno en otras técnicas?</t>
+  </si>
+  <si>
+    <t>Sí, verdad? YY ese y ese es una situación complicada porque este con con todo el el, la, los procesos que estamos como ministerio del Ambiente, llevándonos que cada vez hay menos gente, se tiene que hacer como un asunto de motivación y esa y esa motivación yo o sea, pueden ser de varios de varias formas, no? Incremento de sueldo, ascenso. Por qué? Porque.</t>
+  </si>
+  <si>
+    <t>El personal de guardaparques entra como guardaparques y termina como guardaparques toda su carrera y más bien deberíamos ahí también buscar una forma de motivación a través del Estado para que como que vayan ascendiendo igual como hay en cualquier institución, no? Primero entra con 1º y va subiendo y va ascendiendo de grado, igual como los militares entran como soldados y termina como como sargentos, igual como los oficiales que entran como subtenientes y terminan.</t>
+  </si>
+  <si>
+    <t>Yo en la parte económica tanto me me capacitan tanta cosa esta y no hay un reconocimiento al final del día tú te puedes tener las mejores capacitaciones, el mejor conocimiento te lo puedes aplicar en el área, pero no hay un reconocimiento por el estado del que digamos este señor se se se sacrifica, este señor tiene su conocimiento en tales áreas y va a haber algo económico o un rubro más, no? Entonces esto por ahí como que te desanima al final.</t>
+  </si>
+  <si>
+    <t>He visto acá ya en un coche, no sé si compañero Juan se haya dado cuenta, pero nosotros siempre manejábamos un poco más las habilidades que tiene cada 1. Tú eres bueno en esto, Hazte cargo de esto YY las capacitaciones que se vienen siempre se van hablando a este ritmo. Si llego a la educación ambiental, vaya con usted con educación ambiental, porque no había sentido darle a una persona que no le gusta dar educación ambiental, darle imponerle como un conocimiento, qué va a ir?</t>
+  </si>
+  <si>
+    <t>Algo que igual debe tener todo gorda parque es explicar sobre la importancia del trabajo que se está realizando. Si nosotros lo hacemos de un análisis y todo el esnavi preguntamos qué es algún gorda parque, pero tú por qué conservas? Para qué sirve la conservación? No sabemos si todos puedan dar un un criterio que sea empoderado sobre sobre por qué están conservando. Y esto viene de la parte que tú mencionabas, diana sobre sobre la actitud y creo que se debería al primero.</t>
+  </si>
+  <si>
+    <t>Lo explica de una manera que no es, no es la adecuada, entonces se generan los conflictos, entonces obviamente los guardaparques, pues yo creo que de manera general todos deben saber que son los 5 programas, para qué sirve cada 1? Qué es el P G o a qué es el paga? Éstas competencias tienen que tenerlas y ya obviamente cada 1 tiene sus todos somos así, la persona que tiene control, vigilancia tiene que saber usar 1 G p s tiene que saber usar Smart.</t>
+  </si>
+  <si>
+    <t>De control de incidentes, o sea, verlo todo como un incidente y tratar de llevarlo desde la cosa más pequeña, como controlado, no? Y con roles muy, muy, muy, muy bien definidos entre la gente mismo del área protegida. Entonces ya en en la parte técnica, pues también creo que sí sería bueno, de alguna manera, que cada programa tenga 111 refuerzo en algo, no, entonces sería un.</t>
+  </si>
+  <si>
+    <t>Un poco ilógico que un guardaparque no sepa usar 1 1 G p S aunque no sea de control de vigilancia, debería usarlo y cosas así no? Entonces me parece ése YY tal vez un tema, un tema de liderazgo, no un tema de liderazgo, pensando no sólo en la de administradores. Muchas veces pensamos que el administrador es del líder y todo, pero en la final del guardaparque que está al frente a la Comunidad, asume un rol de liderazgo y que tiene que saber explicar a la gente.</t>
+  </si>
+  <si>
+    <t>Algún problema ambiental, alguna cuestión, pero tiene que tomar ese rol, no? YY que la gente lo vea, que el Ministerio está liderando a través de esto del guardaparques, no así un poquito rápido. Dianita, gracias, gracias Dani. Yo tengo una pregunta, tú crees que hubiéramos podido ahorrarnos conflictos, si es que nuestros guardaparques y nuestros jefes de área tuvieran una claridad en liderazgo para el manejo de conflictos?</t>
+  </si>
+  <si>
+    <t>Sí, o sea, es es una combinación entre el el liderazgo, el manejo de conflictos y también el tema está claro en el tema de competencias no? Obviamente va haber siempre un conflicto que es inevitable cuando ya hay personas que son excesivamente violentas. Eso pasa mucho en yasuní, que ya no se puede, pero si tú trabajas con con las personas en su día a día, tratas de hacer un sistema, digamos en el tiempo YY liderado por por los mismos guardaparques.</t>
+  </si>
+  <si>
+    <t>Cómo liderar? O sea, no, no, casi todos los hacemos ya porque nos toca hacerlo. Lo hacemos bien, sí se puede hacer mejor, piensen o K, porque, por ejemplo, el conflicto siempre va a haber, no? YY nuestra formación en liderazgo y en manejo de conflictos va a ser a cómo nosotros enfrentemos el conflicto si nosotros enfrentamos el conflicto con más conflicto o entramos a un conflicto mediando o buscando opciones.</t>
+  </si>
+  <si>
+    <t>Podemos identificar al menos 2 capacidades de habilidades que necesitan ser abordadas para los y las guardaparques para que puedan cumplir con sus deberes. Creo que y me voy a adelantar a esto. Estarían de acuerdo que sea liderazgo y manejo de conflictos o no están de acuerdo? Qué opinan?</t>
+  </si>
+  <si>
+    <t>Yo quiero, yo quiero, no sé este un poco hacer un análisis del tema anterior y lo que estaba mencionando estaban mencionando los compañeros todos. Pero miren, nos falta, nos falta respaldo institucional, definitivamente nos falta respaldo, intensidad. En qué sentido en que el personal de guardaparques, administradores, técnicos son amenazados?</t>
+  </si>
+  <si>
+    <t>El asunto, el asunto de imagen institucional? Pues sí. O sea, es importante. O sea, el estar con una buena presencia, con una buena vestimenta, el estar con carros, vehículos y bienes que la gente vea, Ah, sí, son del Ministerio del Ambiente. Eso también es importante? Sí, y el que se pueda dar como lecciones.</t>
+  </si>
+  <si>
+    <t>De que si es que hay algo infracciones graves y se y se visibiliza que hay estas sanciones se las puede realizar en el menor tiempo posible. Por qué? Porque nosotros tenemos ejemplos. Tras ejemplo, de que el personal realiza algún tipo de de de de retención por un un asunto bien flagrante en términos técnicos que se los encuentra con las manos en la masa.</t>
+  </si>
+  <si>
+    <t>Estoy pensando así de manera regional y ya en la parte ya técnica no sé si será necesario un curso o bueno, no sé un tema de plataformas regionales que se podrían usar en la Amazonía o o que nosotros sepamos qué hay, cómo se puede usar y hasta qué punto llegar. Podría ser algo así? No sé. Plataformas regionales, otro tema que me me queda aquí, el tema es como el proyecto de la CL es, es mucho de conectividad, no? Entonces tal vez una conectividad.</t>
+  </si>
+  <si>
+    <t>No sé entre redes ecosistémica, pero sería bueno tener que los chicos sepan un poco más del tema de conectividad desde un punto de vista amplio, no? Y el el tema de relacionamiento comunitario me parece súper súper importante. Relacionamiento comunitario es en Amazonía, sobre todo debería debería estar y el tema de la la resolución de conflictos dianita.</t>
+  </si>
+  <si>
+    <t>Tal vez irnos un poco más allá desde un desde una mirada antropológica o sociológica, ya que en Amazonía están los los pueblos y comunidades indígenas. Tratar de ver esa, esa, esa manera de tratar de entender a la gente que vive ahí desde su cultura y desde su idiosincrasia, para así manejar un conflicto. Y bueno, deberías de tratar de evitarlo siempre, no?</t>
+  </si>
+  <si>
+    <t>Tratar de que la gente entienda cómo podemos manejar esta conectividad para que después de que el proyecto se vaya, pues quede ya algo, no? Eso gracias, gracias Juan, sí igual en base a lo que estaban comentando los compañeros. Creo que el tema de resolución de conflictos debe estar ligado a relaciones comunitarias, con qué objetivo objetivo sería evitar que surjan estos conflictos?</t>
+  </si>
+  <si>
+    <t>Porque es un tema ya estructural de Del Estado que quizá sea difícil que se pueda abordar con este tema de capacitación, no lo que sucede y ha sucedido en el tiempo que yo estaba, que se llegaban los informes y no había ninguna solución ni ninguna resolución. Y el tema claro, no ha existido. Sanciones graves? No, pero la idea sería más bien que nosotros podamos relacionarnos con las personas para evitar que se cometan estos delícitos de.</t>
+  </si>
+  <si>
+    <t>Ambientales? No, igual hablamos del tema de conectividad, no, la conectividad no solo es ecológica, también debería ser una conectividad social que exista a lo largo de un sistema en que las personas puedan estar colaborando con la conservación del área protegida. En el tema de limón Concha, muchas personas avisaban cuando entraba gente de otras comunidades de realizar este tipo de actividades. No, y la idea que yo hago referencia a esto de relaciones comunitarias, de comunicación asertiva, es.</t>
+  </si>
+  <si>
+    <t>Pero no ser el guardapar que el que aplique las sanciones es algo que sale fuera de las manos, no? Y su trabajo llega hasta cierto hasta cierto punto. Y aquí viene de la mano una buena comunicación, una motivación y que se pueda transmitir esa esa motivación al resto de de personas. No, Juan, ahí el tema que tenían ustedes mucho en la mancocha de monitoreo comunitario.</t>
+  </si>
+  <si>
+    <t>También podría ser una un sí había este tema, este tema participativo, no este tema que que se que se sigue a esta hora ahí hasta ahora trabajando. Y esa sería la la idea, no que claro que no todas las personas son infractores y no todas las personas cometen que se ilícitos ambientales por maldad no es muchas veces por desconocimiento y exactamente por necesidad, no?</t>
+  </si>
+  <si>
+    <t>Y hablábamos de las diferentes competencias que tienen las personas y claro, es cierto, yo de acuerdo con con lo lo que decía Darwin, que no todos pueden ser todos los no y limón coches. Sabíamos que era bueno para hacer rótulos y para diferentes actividades, pero el tema de comunicarse absolutamente todos van a necesitar comunicarse, algún momento les van a preguntar y ustedes qué hacen YY por qué trabajan y cuál es la importancia de su trabajo? Y qué pasa si tumbos de árbol no por tal motivo considero que es una habilidad súper súper importante.</t>
+  </si>
+  <si>
+    <t>Y tener en cuenta que la perspectiva que se tiene sobre un guardapar que va a variar desde el punto de vista que lo vean. A qué me refiero con esto? No dentro del sistema de las protegidas hay una perspectiva dentro de una comunidad, hay una perspectiva dentro, una si una perspectiva. Y pues la idea es de eso que puede haber 111 comunicación adecuada para que las personas puedan conocer la importancia de de ese trabajo.</t>
+  </si>
+  <si>
+    <t>Les agradezco mucho, he estado tomando nota. Sí, permítame el el monitoreo comunitario, sí, me gustaría que la notes como o sea, tal vez aprender a hacer un un modelo de monitorio comunitario podría ser interesante para las áreas que no tiene como una forma de relacionamiento. Te refieres?</t>
+  </si>
+  <si>
+    <t>Monitor comunitario. Sabes que se hace monitoreo biótico? Sí, pero como una forma de relacionamiento como las comunidades o como una forma de emplear a las comunidades. Emplear en términos monetarios, dicen, o de vincular, más que emplear vincular un trabajo colaborativo sería entre sería un validar para que la gente también aprenda. Por qué se hace la conservación?</t>
+  </si>
+  <si>
+    <t>Que la gente en territorio pueda visibilizar intereses, intereses de parte y parte. No? Mire, te hablo de hay un conflicto, gente, fauna con el asunto del Jaguar. Hasta ahora, después de tantísimos años, no tenemos una directriz clara que hacer cuando la gente viene y nos dice, se me está comiendo el ganado el Jaguar o lo capturamos y lo llevamos a otro lado o lo matamos.</t>
+  </si>
+  <si>
+    <t>Y generalmente nosotros no tenemos ninguna salida y terminan matando al Jaguar. O sea, pero si si identificáramos el interés, por qué? Porque este el caso de los defines que mata a la gente, mata a los delfines. Pero si los ven como un asunto de interés de turismo, la gente va a cuidar. Es es lo que pasa acá en este sector de cuya ver no la zona turística nadie caza, bueno, nadie caza, nadie pesca.</t>
+  </si>
+  <si>
+    <t>Ahí voy a hacer bien honesto, Dani, cómo crees tú que lo tomen? En qué sentido? Porque es fuerte pedirle a guardaparques que han tenido una formación de bachiller al menos, y muchos de ellos tienen licenciaturas y hasta ingenierías que tomen un curso de lectura comprensiva y redacción básica.</t>
+  </si>
+  <si>
+    <t>Claro, o sea, algunos tienen estatura, pero el perfil recuerda guardaparques es bachiller, entonces, De hecho deben ser muy pocos los que son un porcentaje pequeño, los que son digamos tercer nivel o cuarto nivel. Entonces ese habría que ir identificando con los administradores? Obviamente ellos saben quién necesita un refuerzo en eso. YY claro, yo pienso que no tenemos que hacerlo totalmente obligatorio YY mucha gente sabe que necesitas de ese tema, YY yo pienso que los que.</t>
   </si>
 </sst>
 </file>
@@ -789,18 +789,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -848,7 +848,7 @@
         <v>9.4444444444444442E-2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
         <v>0.11458333333333333</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -864,7 +864,7 @@
         <v>0.13472222222222222</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -872,7 +872,7 @@
         <v>0.15416666666666667</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>0.17222222222222225</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -888,7 +888,7 @@
         <v>0.19305555555555554</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
         <v>0.20972222222222223</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -904,7 +904,7 @@
         <v>0.2298611111111111</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>0.24513888888888888</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -920,7 +920,7 @@
         <v>0.26041666666666669</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -928,7 +928,7 @@
         <v>0.27986111111111112</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -936,7 +936,7 @@
         <v>0.2902777777777778</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -944,7 +944,7 @@
         <v>0.30972222222222223</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
         <v>0.32777777777777778</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -968,7 +968,7 @@
         <v>0.36874999999999997</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>0.40833333333333338</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -992,7 +992,7 @@
         <v>0.42638888888888887</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1000,7 +1000,7 @@
         <v>0.4458333333333333</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1008,7 +1008,7 @@
         <v>0.46527777777777773</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>0.48680555555555555</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,7 +1024,7 @@
         <v>0.50624999999999998</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>0.52430555555555558</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1040,7 +1040,7 @@
         <v>0.54236111111111118</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
         <v>0.56180555555555556</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1056,7 +1056,7 @@
         <v>0.57916666666666672</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,7 +1064,7 @@
         <v>0.59930555555555554</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>0.61597222222222225</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1080,7 +1080,7 @@
         <v>0.63750000000000007</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1088,7 +1088,7 @@
         <v>0.65</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1096,7 +1096,7 @@
         <v>0.67083333333333339</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
         <v>0.68958333333333333</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1112,7 +1112,7 @@
         <v>0.7104166666666667</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1120,7 +1120,7 @@
         <v>0.73402777777777783</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1128,7 +1128,7 @@
         <v>0.75555555555555554</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
         <v>0.77569444444444446</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
         <v>0.79652777777777783</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
         <v>0.81666666666666676</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1160,7 +1160,7 @@
         <v>0.83611111111111114</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1168,7 +1168,7 @@
         <v>0.85486111111111107</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1176,7 +1176,7 @@
         <v>0.87222222222222223</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>0.8930555555555556</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1192,7 +1192,7 @@
         <v>0.91388888888888886</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1200,7 +1200,7 @@
         <v>0.92847222222222225</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -1208,7 +1208,7 @@
         <v>0.94374999999999998</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
         <v>0.95763888888888893</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1224,7 +1224,7 @@
         <v>0.9784722222222223</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -1232,7 +1232,7 @@
         <v>0.99791666666666667</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1240,7 +1240,7 @@
         <v>1.0243055555555556</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1248,7 +1248,7 @@
         <v>1.0451388888888888</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -1256,7 +1256,7 @@
         <v>1.0638888888888889</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1264,7 +1264,7 @@
         <v>1.0847222222222224</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1272,7 +1272,7 @@
         <v>1.10625</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -1280,7 +1280,7 @@
         <v>1.1208333333333333</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -1288,7 +1288,7 @@
         <v>1.1388888888888888</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
         <v>1.1590277777777778</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>1.1791666666666667</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>1.1979166666666667</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
         <v>1.2180555555555557</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -1328,7 +1328,7 @@
         <v>1.2381944444444444</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1336,7 +1336,7 @@
         <v>1.2555555555555555</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
         <v>1.2722222222222224</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
         <v>1.2930555555555556</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1360,7 +1360,7 @@
         <v>1.3138888888888889</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -1368,7 +1368,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1376,7 +1376,7 @@
         <v>1.3534722222222222</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1384,7 +1384,7 @@
         <v>1.3743055555555557</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1392,7 +1392,7 @@
         <v>1.3951388888888889</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
         <v>1.4145833333333335</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1408,7 +1408,7 @@
         <v>1.434722222222222</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -1416,7 +1416,7 @@
         <v>1.4513888888888891</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
         <v>1.4701388888888889</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1432,7 +1432,7 @@
         <v>1.4895833333333333</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
         <v>1.5055555555555555</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1448,7 +1448,7 @@
         <v>1.5256944444444445</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
         <v>1.54375</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -1464,7 +1464,7 @@
         <v>1.559722222222222</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1472,7 +1472,7 @@
         <v>1.5798611111111109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -1480,7 +1480,7 @@
         <v>1.5979166666666667</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1488,7 +1488,7 @@
         <v>1.6166666666666665</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1496,7 +1496,7 @@
         <v>1.6375</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>1.6548611111111111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
         <v>1.6722222222222223</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -1520,7 +1520,7 @@
         <v>1.6923611111111112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>1.7125000000000001</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -1536,7 +1536,7 @@
         <v>1.7326388888888891</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>1.7513888888888889</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1552,7 +1552,7 @@
         <v>1.7722222222222221</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
         <v>1.7916666666666667</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>94</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1568,7 +1568,7 @@
         <v>1.8125</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1576,7 +1576,7 @@
         <v>1.83125</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1584,7 +1584,7 @@
         <v>1.8527777777777779</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1592,7 +1592,7 @@
         <v>1.8708333333333333</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>1.8895833333333334</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,7 +1608,7 @@
         <v>1.9104166666666667</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
         <v>1.9291666666666665</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -1624,7 +1624,7 @@
         <v>1.9465277777777779</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -1632,7 +1632,7 @@
         <v>1.965972222222222</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
         <v>1.9854166666666666</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1648,7 +1648,7 @@
         <v>2.0034722222222223</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -1656,7 +1656,7 @@
         <v>2.0236111111111112</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
         <v>2.0430555555555556</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,7 +1672,7 @@
         <v>2.0631944444444446</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1680,7 +1680,7 @@
         <v>2.0833333333333335</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1688,7 +1688,7 @@
         <v>2.1020833333333333</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -1696,7 +1696,7 @@
         <v>2.1215277777777777</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -1704,7 +1704,7 @@
         <v>2.1409722222222221</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -1712,7 +1712,7 @@
         <v>2.1576388888888887</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -1720,7 +1720,7 @@
         <v>2.1777777777777776</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -1728,7 +1728,7 @@
         <v>2.1972222222222224</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -1736,7 +1736,7 @@
         <v>2.2145833333333331</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -1744,7 +1744,7 @@
         <v>2.2305555555555556</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
         <v>2.25</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -1760,7 +1760,7 @@
         <v>2.2687500000000003</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -1768,7 +1768,7 @@
         <v>2.2888888888888888</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -1776,7 +1776,7 @@
         <v>2.3090277777777777</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -1784,7 +1784,7 @@
         <v>2.3284722222222221</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -1792,7 +1792,7 @@
         <v>2.348611111111111</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -1800,7 +1800,7 @@
         <v>2.3673611111111112</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -1808,7 +1808,7 @@
         <v>2.3881944444444447</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -1816,7 +1816,7 @@
         <v>2.4097222222222223</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -1824,7 +1824,7 @@
         <v>2.4298611111111112</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -1832,7 +1832,7 @@
         <v>2.4534722222222221</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -1840,7 +1840,7 @@
         <v>2.473611111111111</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -1848,7 +1848,7 @@
         <v>2.4923611111111112</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -1856,7 +1856,7 @@
         <v>4.1874999999999996E-2</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>131</v>
+        <v>79</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -1864,7 +1864,7 @@
         <v>4.2175925925925922E-2</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
         <v>4.2511574074074077E-2</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>133</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -1880,7 +1880,7 @@
         <v>4.282407407407407E-2</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -1888,7 +1888,7 @@
         <v>4.3206018518518519E-2</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -1896,7 +1896,7 @@
         <v>4.3541666666666666E-2</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -1904,7 +1904,7 @@
         <v>4.386574074074074E-2</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>137</v>
+        <v>85</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
